--- a/online_translators/raw_data/questionnaire_small_size.xlsx
+++ b/online_translators/raw_data/questionnaire_small_size.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="adj_csv_ru" sheetId="1" r:id="rId1"/>
     <sheet name="adj_csv_en" sheetId="2" r:id="rId2"/>
+    <sheet name="adj_csv_it" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="95">
   <si>
     <t>лист бумаги</t>
   </si>
@@ -323,6 +324,48 @@
       </rPr>
       <t>G</t>
     </r>
+  </si>
+  <si>
+    <t>sottile</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>magro</t>
+  </si>
+  <si>
+    <t>stretto</t>
+  </si>
+  <si>
+    <t>angusto</t>
+  </si>
+  <si>
+    <t>+, G</t>
+  </si>
+  <si>
+    <t>стебель</t>
+  </si>
+  <si>
+    <t>нитка</t>
+  </si>
+  <si>
+    <t>карандаш</t>
+  </si>
+  <si>
+    <t>суп</t>
+  </si>
+  <si>
+    <t>лента</t>
+  </si>
+  <si>
+    <t>отверстие</t>
+  </si>
+  <si>
+    <t>штаны</t>
+  </si>
+  <si>
+    <t>ботинок</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -1637,4 +1680,354 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>